--- a/biology/Virologie/Stavudine/Stavudine.xlsx
+++ b/biology/Virologie/Stavudine/Stavudine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La stavudine (2'-3'-didéhydro-2'-3'-didéoxythymidine ou d4T) est un médicament antirétroviral, c'est un inhibiteur nucléosidique de la transcriptase inverse (NRTI). Cette molécule est commercialisée sous le nom « Zerit ».
-Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[2].
+Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La stavudine ou D4T (2, 3’-didéhydro-2’, 3’ –didéoxythymidine) est un principe actif antiviral utilisé dans le traitement des personnes atteintes par le virus de l’immunodéficience humaine (VIH), qui provoque le syndrome d’immunodéficience acquise (SIDA). 
 Elle a été synthétisée pour la première fois en 1966 par le Dr Jerome Horwitz, de la Michigan Cancer Foundation pour son potentiel en tant qu'agent anticancéreux. 
@@ -552,21 +566,14 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La stavudine ou D4T fut synthétisée pour la première fois par le scientifique américain Jerome Horwitz dans les années 1960 par rupture de la liaison entre le carbone entouré en vert et l'oxygène. L'alcool primaire correspondant, la stavudine, est ainsi formée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La stavudine ou D4T fut synthétisée pour la première fois par le scientifique américain Jerome Horwitz dans les années 1960 par rupture de la liaison entre le carbone entouré en vert et l'oxygène. L'alcool primaire correspondant, la stavudine, est ainsi formée.
 Actuellement, il existe de nombreuses façons de synthétiser la stavudine. En effet, beaucoup de précurseurs du D4T peuvent servir à la synthétiser et il existe principalement deux procédés de réaction : 
 un réarrangement structural pour obtenir le D4T ;
-retrait des groupements protecteurs de l'alcool primaire.
-Réarrangement structural
-La molécule de formule brute C10H12N2O4 (correspondant au composé numéro 1) est un exemple de molécule pouvant servir à synthétiser du D4T en passant par un réarrangement structural. Cette molécule est d'abord mise en présence d'un sel d'imidazolium (à 50 °C), puis réagit avec NaH dans des conditions particulières (température de 100 °C, pendant 5 min), et forme ainsi la stavudine.
-Notons que le rendement de cette réaction est de 93 %, alors que le rendement de la 1re synthèse de la stavudine était de 79 %.
-Il existe d'autres molécules passant par ce même procédé, le mécanisme faisant intervenir le composé numéro 1 n'est qu'un exemple parmi d'autres.
-Retrait des groupements protecteurs du OH
-Parmi les différents procédés de synthèse de la stavudine, le plus courant et le plus utilisé consiste à déprotéger la fonction alcool primaire de la stavudine. Prenons l'exemple du composé 2, la fonction protectrice est un groupement triphénylméthyle. Ce réactif est mis en présence d'acide acétique dans de l'eau (tout ceci à une température de 50 °C pendant 2 h). On obtient finalement la stavudine avec un rendement de 93 %.
-Mécanisme de dé-protection : l'acide acétique permet de protoner l'oxygène lié au groupement triphénylméthyle (cet oxygène se charge positivement), puis l'eau attaque l’atome de carbone central du groupement triphénylméthyle. Le triphénylméthanol est ainsi libéré.
-Là encore, d'autres groupements peuvent substituer l'alcool primaire (par exemple, cela peut être un simple ester (COOCH3)), qui pourra être hydrolysé in fine.
-</t>
+retrait des groupements protecteurs de l'alcool primaire.</t>
         </is>
       </c>
     </row>
@@ -591,10 +598,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Synthèse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réarrangement structural</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule de formule brute C10H12N2O4 (correspondant au composé numéro 1) est un exemple de molécule pouvant servir à synthétiser du D4T en passant par un réarrangement structural. Cette molécule est d'abord mise en présence d'un sel d'imidazolium (à 50 °C), puis réagit avec NaH dans des conditions particulières (température de 100 °C, pendant 5 min), et forme ainsi la stavudine.
+Notons que le rendement de cette réaction est de 93 %, alors que le rendement de la 1re synthèse de la stavudine était de 79 %.
+Il existe d'autres molécules passant par ce même procédé, le mécanisme faisant intervenir le composé numéro 1 n'est qu'un exemple parmi d'autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Synthèse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Retrait des groupements protecteurs du OH</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les différents procédés de synthèse de la stavudine, le plus courant et le plus utilisé consiste à déprotéger la fonction alcool primaire de la stavudine. Prenons l'exemple du composé 2, la fonction protectrice est un groupement triphénylméthyle. Ce réactif est mis en présence d'acide acétique dans de l'eau (tout ceci à une température de 50 °C pendant 2 h). On obtient finalement la stavudine avec un rendement de 93 %.
+Mécanisme de dé-protection : l'acide acétique permet de protoner l'oxygène lié au groupement triphénylméthyle (cet oxygène se charge positivement), puis l'eau attaque l’atome de carbone central du groupement triphénylméthyle. Le triphénylméthanol est ainsi libéré.
+Là encore, d'autres groupements peuvent substituer l'alcool primaire (par exemple, cela peut être un simple ester (COOCH3)), qui pourra être hydrolysé in fine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La stavudine pénètre rapidement dans les cellules par diffusion non facilitée. Dans un grand nombre de cellules, la stavudine est phosphorylée de manière séquentielle en 5'-mono-, di- et triphosphate.
 La forme 5'-triphosphate est un inhibiteur de la transcriptase inverse, et a d’ailleurs un mécanisme comparable aux autres inhibiteurs de transcriptase inverse comme la zidovudine (AZT), ou l’entricitabine.
@@ -609,71 +696,116 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Stavudine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Virologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Autres caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La résistance
-En général, les patients qui montraient une résistance à la zidovudine, présentaient une résistance beaucoup moins importante pour la stavudine. Cependant, des études (réalisées en 1994) ont récemment montré, in vitro, qu’il existait des variants résistant à la stavudine. Lorsque ces variants étaient présents, ils présentaient une résistance 30 fois supérieure à la normale à la stavudine (provoquant une grande baisse de la CI50 de celle-ci). Cette résistance est due à une mutation du virus. En effet, au niveau du codon 50 (codant une thréonine), le virus a développé une mutagénèse spécifique lui attribuant une résistance face à la stavudine.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La résistance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En général, les patients qui montraient une résistance à la zidovudine, présentaient une résistance beaucoup moins importante pour la stavudine. Cependant, des études (réalisées en 1994) ont récemment montré, in vitro, qu’il existait des variants résistant à la stavudine. Lorsque ces variants étaient présents, ils présentaient une résistance 30 fois supérieure à la normale à la stavudine (provoquant une grande baisse de la CI50 de celle-ci). Cette résistance est due à une mutation du virus. En effet, au niveau du codon 50 (codant une thréonine), le virus a développé une mutagénèse spécifique lui attribuant une résistance face à la stavudine.
 Mais il existe également d’autres types de mutations qui rendent le virus du VIH résistant à d'autres traitements. En 1994, des chercheurs ont isolé une seconde souche mutante de VIH qui présentait une résistance 7 fois supérieure à la normale à la stavudine. Ce virus contient un changement de deux nucléotides au niveau du codon 75, ce qui provoque, entre autres, le remplacement d’une valine par une thréonine. Cette mutation confère une résistance croisée à la didanosine et à la zalcitabine (molécules pouvant faire partie de médicaments antirétroviraux). Notons que le virus résistant à la stavudine n'a pas pu être complètement isolé lors de ces études.
-Toxicité
-Plusieurs chercheurs ont comparé la cytotoxicité de la stavudine à celle de la zidovudine grâce à des tests, mais les résultats obtenus étaient différents. Dans certaines études, la stavudine était 20 à 100 fois moins toxique que la zidovudine, tandis que dans d'autres, la cytotoxicité des deux médicaments était similaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Autres caractéristiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs chercheurs ont comparé la cytotoxicité de la stavudine à celle de la zidovudine grâce à des tests, mais les résultats obtenus étaient différents. Dans certaines études, la stavudine était 20 à 100 fois moins toxique que la zidovudine, tandis que dans d'autres, la cytotoxicité des deux médicaments était similaire.
 Dans un test sur la toxicité neuronale in vitro, la stavudine a montré une toxicité moindre que la zidovudine. Par la suite, la didanosine et la zalcitabine ont été également présentées comme étant plus toxiques que la stavudine. La raison est que l'inhibition de la synthèse de l'ADN par la stavudine a lieu pour des concentrations inférieures par rapport à la zidovudine ou à la didanosine. Une diminution de la concentration de la molécule par rapport aux autres induit donc une diminution des effets secondaires de cette molécule, réduisant ainsi sa toxicité.
 L'interaction de la stavudine libre triphosphate et de la zidovudine libre triphosphate avec les ADN polymérases cellulaires (protéines servant à l’élongation de l'ADN) a été étudiée par plusieurs chercheurs. D'une manière générale, la stavudine triphosphate inhibe la γ-polymérase à des concentrations élevées. L'inhibition de la γ-polymérase a d’ailleurs été proposée comme un éventuel mécanisme de neuropathie périphérique induite par le médicament chez les patients infectés par le VIH.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Stavudine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Virologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Posologie
-Zerit contient comme excipients à effet notoire du lactose monohydrate et du lactose anhydre.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Posologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zerit contient comme excipients à effet notoire du lactose monohydrate et du lactose anhydre.
 Ce médicament est classé comme :
 -médicament à prescription restreinte
 -médicament à prescription initiale hospitalière
@@ -684,8 +816,43 @@
 -  30 mg toutes les 12 heures pour les patients adultes pesant moins de 60 kg
 -  1 mg/kg toutes les 12 heures pour les enfants âgés de plus de 3 ans et pesant moins de 30 kg.
 La dose doit être réduite pour les patients souffrant d’insuffisance rénale (il faut un suivi du patient pour vérifier la fonction rénale pendant la durée de traitement).
-Les effets secondaires
-* Les effets secondaires rares :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les effets secondaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">* Les effets secondaires rares :
 - effet sur le pancréas (pancréatite = inflammation du pancréas) qui se manifeste par une douleur abdominale intense avec ou sans nausées et vomissements
 - acidose lactique qui peut être mortelle : accumulation d'acide lactique dans le sang
 - troubles osseux pouvant apparaître.
@@ -706,17 +873,157 @@
 -diarrhées
 -des douleurs articulaires et musculaires
 -troubles psychiatriques : dépression.
-Les allergies et l'alcool
-Des réactions allergiques peuvent survenir sous forme de problèmes de peau (rougeurs, urticaires) ou de problèmes respiratoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les allergies et l'alcool</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des réactions allergiques peuvent survenir sous forme de problèmes de peau (rougeurs, urticaires) ou de problèmes respiratoires.
 De plus, Zerit contient du sucre de lait (lactose), ainsi les personnes intolérantes au lactose et sous stavudine peuvent souffrir de nausées et de diarrhées.
 Il faut également noter qu'une consommation d'alcool sous stavudine peut augmenter le risque de problème de foie et de pancréas et donc aggraver les effets secondaires.
-Grossesse et allaitement
-On ne connaît pas les effets de la stavudine chez la femme enceinte et on ignore encore les effets nocifs sur le développement du fœtus. Cependant, des anomalies congénitales et des avortements ont été notés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Grossesse et allaitement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne connaît pas les effets de la stavudine chez la femme enceinte et on ignore encore les effets nocifs sur le développement du fœtus. Cependant, des anomalies congénitales et des avortements ont été notés.
 L’allaitement n'est pas recommandé, voire fortement déconseillé pour les femmes atteintes par le VIH, puisque le risque de contaminer le bébé par le lait maternel n'est pas nul.
-Trithérapie
-Généralement, trois antiviraux sont prescrits simultanément dans le traitement de l'infection par le VIH  afin d'éviter que le virus résiste à ces principes actifs. C'était le cas pour le D4T qui fut commercialisé avec la lamivudine (inhibiteur nucléosidique de la transcriptase inverse) et le névirapine (inhibiteur non nucléosidique de la transcriptase inverse) sous le nom générique « Triomune » dans les pays en développement. Cependant, ce générique n'est plus utilisé dans la trithérapie prescrite au début de la maladie pour cause d'effets indésirables importants.
-Interactions médicamenteuses
-Des interactions entre la stavudine et d'autres médicaments tels que la didanosine, la doxorubicine, l'hydroxyurée, la ribavirine ou la zidovudine peuvent avoir lieu, entraînant une aggravation des effets secondaires dans certains cas, ou l'inhibition de l'activité antivirale du D4T dans d'autres cas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Trithérapie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Généralement, trois antiviraux sont prescrits simultanément dans le traitement de l'infection par le VIH  afin d'éviter que le virus résiste à ces principes actifs. C'était le cas pour le D4T qui fut commercialisé avec la lamivudine (inhibiteur nucléosidique de la transcriptase inverse) et le névirapine (inhibiteur non nucléosidique de la transcriptase inverse) sous le nom générique « Triomune » dans les pays en développement. Cependant, ce générique n'est plus utilisé dans la trithérapie prescrite au début de la maladie pour cause d'effets indésirables importants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Stavudine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stavudine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Interactions médicamenteuses</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des interactions entre la stavudine et d'autres médicaments tels que la didanosine, la doxorubicine, l'hydroxyurée, la ribavirine ou la zidovudine peuvent avoir lieu, entraînant une aggravation des effets secondaires dans certains cas, ou l'inhibition de l'activité antivirale du D4T dans d'autres cas.
 Par exemple pour des hautes concentrations, la zidovudine sous sa forme monophosphate empêche la phosphorylation du D4T en sa forme active triphosphate. En effet, la zidovudine comme la stavudine est un substrat de l'enzyme thymidine kinase et donc se fixe sur les récepteurs de celle-ci . La zidovudine ayant une meilleure affinité envers les récepteurs de la thymidine kinase, elle s'y fixe. Les récepteurs sont donc saturés et la stavudine ne peut plus s'y fixer. La zidovudine est donc un antagoniste du D4T. Autre exemple,  la stavudine associée avec la didanosine entraîne une augmentation de la toxicité mitochondriale.
 </t>
         </is>
